--- a/Scripts/parameters_output_27444.xlsx
+++ b/Scripts/parameters_output_27444.xlsx
@@ -658,16 +658,16 @@
         <v>19</v>
       </c>
       <c r="G7">
-        <v>3620410.410772763</v>
+        <v>4117624.763061869</v>
       </c>
       <c r="H7">
-        <v>58806.424191948</v>
+        <v>58364.35611791228</v>
       </c>
       <c r="I7">
-        <v>2.33</v>
+        <v>5.72</v>
       </c>
       <c r="J7">
-        <v>84195.89732715368</v>
+        <v>235423.3028237077</v>
       </c>
     </row>
     <row r="8" spans="1:10">
